--- a/Figures/Region_Results/Relevant_var_SUICF_Region.xlsx
+++ b/Figures/Region_Results/Relevant_var_SUICF_Region.xlsx
@@ -36,169 +36,169 @@
     <t xml:space="preserve">Selected_feat_importance</t>
   </si>
   <si>
+    <t xml:space="preserve">SOC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC22</t>
+  </si>
+  <si>
     <t xml:space="preserve">HEALTH14</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasso</t>
+    <t xml:space="preserve">COV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost_gam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Cone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO_COV_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECON1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Latin Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost_glm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andean Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
   </si>
   <si>
     <t xml:space="preserve">Americas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Cone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECON1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non Latin Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boost_glm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO_COV_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andean Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boost_gam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island</t>
   </si>
   <si>
     <t xml:space="preserve">metrics</t>
@@ -588,7 +588,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.145699038966723</v>
+        <v>0.0232141415556308</v>
       </c>
     </row>
     <row r="3">
@@ -611,7 +611,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -620,10 +620,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0564882333826609</v>
+        <v>0.2390085331358</v>
       </c>
     </row>
     <row r="4">
@@ -634,7 +634,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -643,10 +643,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0548986502174479</v>
+        <v>-0.0976277091985879</v>
       </c>
     </row>
     <row r="5">
@@ -657,7 +657,7 @@
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -666,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0327119009846187</v>
+        <v>0.0511505840739207</v>
       </c>
     </row>
     <row r="6">
@@ -680,7 +680,7 @@
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G6" t="n">
-        <v>0.253405045646755</v>
+        <v>0.0287515009094988</v>
       </c>
     </row>
     <row r="7">
@@ -703,7 +703,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -712,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0159763229160964</v>
+        <v>0.0000849475776280364</v>
       </c>
     </row>
     <row r="8">
@@ -723,160 +723,160 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.187381742286038</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0000033777268714364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.187381742286038</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.331623745105729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.187381742286038</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.826678973290845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.187381742286038</v>
+        <v>0.00123284673944207</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.0142306614129283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="n">
-        <v>39</v>
-      </c>
-      <c r="C12" t="n">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>33.6698308949217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="n">
-        <v>39</v>
-      </c>
-      <c r="C13" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.6698308949217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>23.3752090467645</v>
       </c>
     </row>
     <row r="15">
@@ -884,22 +884,22 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>20.0620844676694</v>
       </c>
     </row>
     <row r="16">
@@ -907,22 +907,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>17.83877419836</v>
       </c>
     </row>
     <row r="17">
@@ -930,165 +930,165 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>14.1452035525025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>9.52146488059454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.89145076397275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.04409214022866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.44380400337571</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4.28844455317018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>0.187381742286038</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.57856983314204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
         <v>39</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
         <v>0.187381742286038</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>39</v>
@@ -1123,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>0.187381742286038</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>39</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
         <v>0.187381742286038</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
         <v>39</v>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
         <v>0.187381742286038</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
         <v>39</v>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>0.187381742286038</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>39</v>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
         <v>0.187381742286038</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>39</v>
@@ -1238,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>0.187381742286038</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>39</v>
@@ -1261,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
         <v>0.187381742286038</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>39</v>
@@ -1284,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
         <v>0.187381742286038</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>39</v>
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n">
         <v>0.187381742286038</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B34" t="n">
         <v>39</v>
@@ -1330,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F34" t="n">
         <v>0.187381742286038</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>39</v>
@@ -1353,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
         <v>0.187381742286038</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>39</v>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
         <v>0.187381742286038</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>39</v>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
         <v>0.187381742286038</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
         <v>39</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
         <v>0.187381742286038</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B39" t="n">
         <v>39</v>
@@ -1445,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n">
         <v>0.187381742286038</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B40" t="n">
         <v>39</v>
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
         <v>0.187381742286038</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
@@ -1491,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F41" t="n">
         <v>0.187381742286038</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B42" t="n">
         <v>39</v>
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
         <v>0.187381742286038</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
         <v>39</v>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n">
         <v>0.187381742286038</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>39</v>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F44" t="n">
         <v>0.187381742286038</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B45" t="n">
         <v>39</v>
@@ -1583,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n">
         <v>0.187381742286038</v>
@@ -1594,232 +1594,232 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0140415190880224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B47" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G47" t="n">
-        <v>9.33067592349736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B48" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.27801972608906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B49" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0112945810749909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B50" t="n">
         <v>39</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G50" t="n">
-        <v>0.105075043743633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B51" t="n">
         <v>39</v>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0932107598021246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B52" t="n">
         <v>39</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06899321330583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B53" t="n">
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0593175222696459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B54" t="n">
         <v>39</v>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0590771217837421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B55" t="n">
         <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0552437547553796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1830,579 +1830,579 @@
         <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0148177657677355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
         <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0141099872620411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B58" t="n">
         <v>39</v>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0135328417636993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B59" t="n">
         <v>39</v>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0009385250383262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B60" t="n">
         <v>39</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G60" t="n">
-        <v>0.000645619879370561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B61" t="n">
         <v>39</v>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.187381742286038</v>
       </c>
       <c r="G61" t="n">
-        <v>0.000617443470321912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B62" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G62" t="n">
-        <v>0.000610123233555897</v>
+        <v>-0.0140415190880224</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B63" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000571890253709006</v>
+        <v>9.33067592349736</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B64" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G64" t="n">
-        <v>0.000435630510350531</v>
+        <v>-2.27801972608906</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0151991108295293</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G65" t="n">
-        <v>0.122354363393508</v>
+        <v>0.0112945810749909</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.000858461403785004</v>
+        <v>0.105075043743633</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="n">
+        <v>39</v>
+      </c>
+      <c r="C67" t="n">
         <v>15</v>
       </c>
-      <c r="B67" t="n">
-        <v>40</v>
-      </c>
-      <c r="C67" t="n">
-        <v>8</v>
-      </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.000144830026803348</v>
+        <v>0.0932107598021246</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0454482793715086</v>
+        <v>0.06899321330583</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.27038878876487</v>
+        <v>0.0593175222696459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00320554899173153</v>
+        <v>0.0590771217837421</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00705501959344706</v>
+        <v>0.0552437547553796</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0151991108295293</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.00000236789165286423</v>
+        <v>0.0148177657677355</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B73" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
         <v>55</v>
-      </c>
-      <c r="E73" t="s">
-        <v>56</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>13.3988613258259</v>
+        <v>0.0141099872620411</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B74" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s">
         <v>55</v>
-      </c>
-      <c r="E74" t="s">
-        <v>56</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>9.5513139484253</v>
+        <v>0.0135328417636993</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B75" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="s">
         <v>55</v>
-      </c>
-      <c r="E75" t="s">
-        <v>56</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>9.03791967274285</v>
+        <v>0.0009385250383262</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
         <v>55</v>
-      </c>
-      <c r="E76" t="s">
-        <v>57</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>90.8416858859658</v>
+        <v>0.000645619879370561</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
         <v>55</v>
-      </c>
-      <c r="E77" t="s">
-        <v>57</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>82.8295404663366</v>
+        <v>0.000617443470321912</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B78" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
         <v>55</v>
-      </c>
-      <c r="E78" t="s">
-        <v>57</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>62.6432983195677</v>
+        <v>0.000610123233555897</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B79" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-26.8387189411876</v>
+        <v>0.000571890253709006</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B80" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.509136449496422</v>
+        <v>0.000435630510350531</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B81" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C81" t="n">
         <v>8</v>
@@ -2411,21 +2411,21 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.171893535208232</v>
+        <v>0.122354363393508</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B82" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
         <v>8</v>
@@ -2434,21 +2434,21 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.00293165809418576</v>
+        <v>-0.000858461403785004</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B83" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C83" t="n">
         <v>8</v>
@@ -2457,21 +2457,21 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0275905906651202</v>
+        <v>0.000144830026803348</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C84" t="n">
         <v>8</v>
@@ -2480,21 +2480,21 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.8282232737672</v>
+        <v>-0.0454482793715086</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B85" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" t="n">
         <v>8</v>
@@ -2503,21 +2503,21 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.204658922622806</v>
+        <v>-2.27038878876487</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C86" t="n">
         <v>8</v>
@@ -2526,208 +2526,208 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.013597975269409</v>
+        <v>0.00320554899173153</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B87" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.109030353903943</v>
+        <v>0.00705501959344706</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B88" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0811130830789687</v>
+        <v>0.0151991108295293</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.015538582775984</v>
+        <v>0.00000236789165286423</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B89" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0126506322480572</v>
+        <v>13.3988613258259</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B90" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>225.471297107205</v>
+        <v>9.5513139484253</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B91" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C91" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0451583362760164</v>
+        <v>9.03791967274285</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.00104188780545968</v>
+        <v>90.8416858859658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.000297167658278123</v>
+        <v>82.8295404663366</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B94" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0811130830789687</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00146188163457945</v>
+        <v>62.6432983195677</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B95" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -2739,18 +2739,18 @@
         <v>0.0811130830789687</v>
       </c>
       <c r="G95" t="n">
-        <v>-22.1849693524411</v>
+        <v>-26.8387189411876</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C96" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -2762,18 +2762,18 @@
         <v>0.0811130830789687</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02075909998926</v>
+        <v>0.509136449496422</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C97" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -2785,133 +2785,133 @@
         <v>0.0811130830789687</v>
       </c>
       <c r="G97" t="n">
-        <v>0.000400435860834434</v>
+        <v>-0.171893535208232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B98" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0232141415556308</v>
+        <v>-0.00293165809418576</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2390085331358</v>
+        <v>0.0275905906651202</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B100" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0976277091985879</v>
+        <v>-12.8282232737672</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B101" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0511505840739207</v>
+        <v>-0.204658922622806</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B102" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0287515009094988</v>
+        <v>-0.013597975269409</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B103" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -2920,21 +2920,21 @@
         <v>60</v>
       </c>
       <c r="F103" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0000849475776280364</v>
+        <v>-0.109030353903943</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B104" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -2943,21 +2943,21 @@
         <v>60</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0000033777268714364</v>
+        <v>-0.015538582775984</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B105" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -2966,21 +2966,21 @@
         <v>60</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G105" t="n">
-        <v>0.331623745105729</v>
+        <v>-0.0126506322480572</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B106" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -2989,21 +2989,21 @@
         <v>60</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.826678973290845</v>
+        <v>225.471297107205</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B107" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3012,125 +3012,125 @@
         <v>60</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00123284673944207</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0142306614129283</v>
+        <v>-0.0451583362760164</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B108" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G108" t="n">
-        <v>33.6698308949217</v>
+        <v>-0.00104188780545968</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G109" t="n">
-        <v>33.6698308949217</v>
+        <v>0.000297167658278123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B110" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G110" t="n">
-        <v>23.3752090467645</v>
+        <v>0.00146188163457945</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B111" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G111" t="n">
-        <v>20.0620844676694</v>
+        <v>-22.1849693524411</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B112" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G112" t="n">
-        <v>17.83877419836</v>
+        <v>0.02075909998926</v>
       </c>
     </row>
     <row r="113">
@@ -3138,160 +3138,160 @@
         <v>31</v>
       </c>
       <c r="B113" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0.0811130830789687</v>
       </c>
       <c r="G113" t="n">
-        <v>14.1452035525025</v>
+        <v>0.000400435860834434</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B114" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E114" t="s">
         <v>61</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G114" t="n">
-        <v>9.52146488059454</v>
+        <v>-0.145699038966723</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B115" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
         <v>61</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G115" t="n">
-        <v>5.89145076397275</v>
+        <v>0.0564882333826609</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B116" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
         <v>61</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G116" t="n">
-        <v>5.04409214022866</v>
+        <v>0.0548986502174479</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E117" t="s">
         <v>61</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G117" t="n">
-        <v>4.44380400337571</v>
+        <v>0.0327119009846187</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B118" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
         <v>61</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G118" t="n">
-        <v>4.28844455317018</v>
+        <v>0.253405045646755</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B119" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E119" t="s">
         <v>61</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>3.57856983314204</v>
+        <v>0.0159763229160964</v>
       </c>
     </row>
   </sheetData>
@@ -3336,19 +3336,19 @@
         <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24115082210864</v>
+        <v>0.269577914716145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0566060984457265</v>
+        <v>0.0353471758479553</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140379975946557</v>
+        <v>0.157840013144135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0916904754173671</v>
+        <v>0.0978557865725727</v>
       </c>
       <c r="F2" t="n">
-        <v>0.19239456161622</v>
+        <v>0.213844500428861</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -3359,19 +3359,19 @@
         <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>0.227476006018068</v>
+        <v>0.254959731422377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0496527917536066</v>
+        <v>0.0320053737937627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125754596348222</v>
+        <v>0.138923931975051</v>
       </c>
       <c r="E3" t="n">
-        <v>0.079941525699576</v>
+        <v>0.0917725775658567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.187160132593674</v>
+        <v>0.208543046258583</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -3382,22 +3382,22 @@
         <v>69</v>
       </c>
       <c r="B4" t="n">
-        <v>0.133515670182218</v>
+        <v>0.532251570618327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124036569353214</v>
+        <v>0.0911164316616053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.178432703326005</v>
+        <v>0.338679387451008</v>
       </c>
       <c r="E4" t="n">
-        <v>0.106450090104454</v>
+        <v>0.118462959053977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.130045369031052</v>
+        <v>0.073973157305152</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -3405,22 +3405,22 @@
         <v>70</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118461391789516</v>
+        <v>0.505915754349673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0922298838896325</v>
+        <v>0.0710859295242727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15282526012973</v>
+        <v>0.315739356229017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0948135261359307</v>
+        <v>0.10950761818733</v>
       </c>
       <c r="F5" t="n">
-        <v>0.103389792463084</v>
+        <v>0.0671089616175997</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -3428,22 +3428,22 @@
         <v>69</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0447487199173481</v>
+        <v>0.133515670182218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.040511376028378</v>
+        <v>0.124036569353214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100109634182316</v>
+        <v>0.178432703326005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11173113125808</v>
+        <v>0.106450090104454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0664874658666526</v>
+        <v>0.130045369031052</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -3451,22 +3451,22 @@
         <v>70</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0370564318685001</v>
+        <v>0.118461391789516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.036107812353247</v>
+        <v>0.0922298838896325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0833125982514429</v>
+        <v>0.15282526012973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0895886888498016</v>
+        <v>0.0948135261359307</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0545549809192121</v>
+        <v>0.103389792463084</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -3474,22 +3474,22 @@
         <v>69</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167773171242024</v>
+        <v>0.0447487199173481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0901907350354962</v>
+        <v>0.040511376028378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115582350998217</v>
+        <v>0.100109634182316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0527946479959479</v>
+        <v>0.11173113125808</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0770239500889737</v>
+        <v>0.0664874658666526</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -3497,22 +3497,22 @@
         <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160811368131484</v>
+        <v>0.0370564318685001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0797836757913869</v>
+        <v>0.036107812353247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.105254781557147</v>
+        <v>0.0833125982514429</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0476719754349479</v>
+        <v>0.0895886888498016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06767043120067</v>
+        <v>0.0545549809192121</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -3520,22 +3520,22 @@
         <v>69</v>
       </c>
       <c r="B10" t="n">
-        <v>0.096875348994339</v>
+        <v>0.167773171242024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0482632433205411</v>
+        <v>0.0901907350354962</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0647178421031079</v>
+        <v>0.115582350998217</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0696888553046229</v>
+        <v>0.0527946479959479</v>
       </c>
       <c r="F10" t="n">
-        <v>0.14896614126424</v>
+        <v>0.0770239500889737</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -3543,22 +3543,22 @@
         <v>70</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0813442290134067</v>
+        <v>0.160811368131484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0367642683748085</v>
+        <v>0.0797836757913869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0554740661050069</v>
+        <v>0.105254781557147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0581426892750206</v>
+        <v>0.0476719754349479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.118444327461142</v>
+        <v>0.06767043120067</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -3566,19 +3566,19 @@
         <v>69</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262597615873312</v>
+        <v>0.096875348994339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.156882088608692</v>
+        <v>0.0482632433205411</v>
       </c>
       <c r="D12" t="n">
-        <v>0.308570645831669</v>
+        <v>0.0647178421031079</v>
       </c>
       <c r="E12" t="n">
-        <v>0.169957054162609</v>
+        <v>0.0696888553046229</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0933952973708704</v>
+        <v>0.14896614126424</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -3589,19 +3589,19 @@
         <v>70</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225118207716672</v>
+        <v>0.0813442290134067</v>
       </c>
       <c r="C13" t="n">
-        <v>0.137523237398868</v>
+        <v>0.0367642683748085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273644284332275</v>
+        <v>0.0554740661050069</v>
       </c>
       <c r="E13" t="n">
-        <v>0.151768416083245</v>
+        <v>0.0581426892750206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0758676658941251</v>
+        <v>0.118444327461142</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -3612,19 +3612,19 @@
         <v>69</v>
       </c>
       <c r="B14" t="n">
-        <v>0.663360301691718</v>
+        <v>0.262597615873312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.257718617927898</v>
+        <v>0.156882088608692</v>
       </c>
       <c r="D14" t="n">
-        <v>0.516494535394703</v>
+        <v>0.308570645831669</v>
       </c>
       <c r="E14" t="n">
-        <v>0.232686193852826</v>
+        <v>0.169957054162609</v>
       </c>
       <c r="F14" t="n">
-        <v>0.182445143118815</v>
+        <v>0.0933952973708704</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -3635,19 +3635,19 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0.644622133778389</v>
+        <v>0.225118207716672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243888276144089</v>
+        <v>0.137523237398868</v>
       </c>
       <c r="D15" t="n">
-        <v>0.506935885197686</v>
+        <v>0.273644284332275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.219974834410171</v>
+        <v>0.151768416083245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.141550862087666</v>
+        <v>0.0758676658941251</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -3658,19 +3658,19 @@
         <v>69</v>
       </c>
       <c r="B16" t="n">
-        <v>0.669503138222924</v>
+        <v>0.663360301691718</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11003325263564</v>
+        <v>0.257718617927898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.374545722436168</v>
+        <v>0.516494535394703</v>
       </c>
       <c r="E16" t="n">
-        <v>0.204429778066938</v>
+        <v>0.232686193852826</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0949946616903621</v>
+        <v>0.182445143118815</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
@@ -3681,19 +3681,19 @@
         <v>70</v>
       </c>
       <c r="B17" t="n">
-        <v>0.634738173810105</v>
+        <v>0.644622133778389</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0682639488219106</v>
+        <v>0.243888276144089</v>
       </c>
       <c r="D17" t="n">
-        <v>0.348150452611282</v>
+        <v>0.506935885197686</v>
       </c>
       <c r="E17" t="n">
-        <v>0.188180623973523</v>
+        <v>0.219974834410171</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0794083146571347</v>
+        <v>0.141550862087666</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -3704,19 +3704,19 @@
         <v>69</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0395515918153218</v>
+        <v>0.669503138222924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0197200185817464</v>
+        <v>0.11003325263564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0659467833611209</v>
+        <v>0.374545722436168</v>
       </c>
       <c r="E18" t="n">
-        <v>0.375798782158005</v>
+        <v>0.204429778066938</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0200410867661322</v>
+        <v>0.0949946616903621</v>
       </c>
       <c r="G18" t="s">
         <v>59</v>
@@ -3727,19 +3727,19 @@
         <v>70</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0325689907500001</v>
+        <v>0.634738173810105</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0117440118311041</v>
+        <v>0.0682639488219106</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0529073942108154</v>
+        <v>0.348150452611282</v>
       </c>
       <c r="E19" t="n">
-        <v>0.363488922596233</v>
+        <v>0.188180623973523</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0142695884324804</v>
+        <v>0.0794083146571347</v>
       </c>
       <c r="G19" t="s">
         <v>59</v>
@@ -3750,19 +3750,19 @@
         <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269577914716145</v>
+        <v>0.0395515918153218</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0353471758479553</v>
+        <v>0.0197200185817464</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157840013144135</v>
+        <v>0.0659467833611209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0978557865725727</v>
+        <v>0.375798782158005</v>
       </c>
       <c r="F20" t="n">
-        <v>0.213844500428861</v>
+        <v>0.0200410867661322</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
@@ -3773,19 +3773,19 @@
         <v>70</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254959731422377</v>
+        <v>0.0325689907500001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0320053737937627</v>
+        <v>0.0117440118311041</v>
       </c>
       <c r="D21" t="n">
-        <v>0.138923931975051</v>
+        <v>0.0529073942108154</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0917725775658567</v>
+        <v>0.363488922596233</v>
       </c>
       <c r="F21" t="n">
-        <v>0.208543046258583</v>
+        <v>0.0142695884324804</v>
       </c>
       <c r="G21" t="s">
         <v>60</v>
@@ -3796,19 +3796,19 @@
         <v>69</v>
       </c>
       <c r="B22" t="n">
-        <v>0.532251570618327</v>
+        <v>0.24115082210864</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0911164316616053</v>
+        <v>0.0566060984457265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.338679387451008</v>
+        <v>0.140379975946557</v>
       </c>
       <c r="E22" t="n">
-        <v>0.118462959053977</v>
+        <v>0.0916904754173671</v>
       </c>
       <c r="F22" t="n">
-        <v>0.073973157305152</v>
+        <v>0.19239456161622</v>
       </c>
       <c r="G22" t="s">
         <v>61</v>
@@ -3819,19 +3819,19 @@
         <v>70</v>
       </c>
       <c r="B23" t="n">
-        <v>0.505915754349673</v>
+        <v>0.227476006018068</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0710859295242727</v>
+        <v>0.0496527917536066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315739356229017</v>
+        <v>0.125754596348222</v>
       </c>
       <c r="E23" t="n">
-        <v>0.10950761818733</v>
+        <v>0.079941525699576</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0671089616175997</v>
+        <v>0.187160132593674</v>
       </c>
       <c r="G23" t="s">
         <v>61</v>
